--- a/image/immunization.xlsx
+++ b/image/immunization.xlsx
@@ -1365,46 +1365,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.93359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.24609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="59.1015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="59.5859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="64.83984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.41796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="42.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="64.734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="42.85546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="143.3515625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="227.69921875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="156.0" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="142.6484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="227.0390625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="158.01171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/immunization.xlsx
+++ b/image/immunization.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="391">
   <si>
     <t>Path</t>
   </si>
@@ -174,7 +174,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -664,10 +664,6 @@
   </si>
   <si>
     <t>Immunization.lotNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Vaccine lot number</t>
@@ -1365,46 +1361,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.24609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.93359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="59.5859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="59.1015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="64.734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="42.85546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="64.83984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.41796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="42.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="142.6484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="227.0390625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="158.01171875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="143.3515625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="227.69921875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="156.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3932,13 +3928,13 @@
         <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4007,21 +4003,21 @@
         <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4044,13 +4040,13 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4101,7 +4097,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4119,10 +4115,10 @@
         <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>41</v>
@@ -4133,7 +4129,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4159,10 +4155,10 @@
         <v>125</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4192,60 +4188,60 @@
         <v>129</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>229</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4271,10 +4267,10 @@
         <v>125</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4304,60 +4300,60 @@
         <v>129</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="Y26" t="s" s="2">
+      <c r="Z26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="Z26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4380,13 +4376,13 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4437,7 +4433,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4455,10 +4451,10 @@
         <v>41</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>41</v>
@@ -4469,7 +4465,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4492,13 +4488,13 @@
         <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4549,7 +4545,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4561,16 +4557,16 @@
         <v>41</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AJ28" t="s" s="2">
+      <c r="AK28" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>41</v>
@@ -4581,7 +4577,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4604,13 +4600,13 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>210</v>
+        <v>53</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4661,28 +4657,28 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>41</v>
@@ -4693,7 +4689,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4722,7 +4718,7 @@
         <v>97</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>99</v>
@@ -4775,7 +4771,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4796,7 +4792,7 @@
         <v>41</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>41</v>
@@ -4807,11 +4803,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4833,10 +4829,10 @@
         <v>96</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>99</v>
@@ -4891,7 +4887,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4923,7 +4919,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4949,10 +4945,10 @@
         <v>125</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4979,52 +4975,52 @@
         <v>41</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="X32" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="X32" t="s" s="2">
+      <c r="Y32" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="Y32" t="s" s="2">
+      <c r="Z32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
+      <c r="AK32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>41</v>
@@ -5035,7 +5031,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5058,16 +5054,16 @@
         <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5117,7 +5113,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>51</v>
@@ -5132,16 +5128,16 @@
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AK33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
@@ -5149,7 +5145,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5172,13 +5168,13 @@
         <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5229,7 +5225,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5244,13 +5240,13 @@
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>41</v>
@@ -5261,7 +5257,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5287,10 +5283,10 @@
         <v>125</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5320,11 +5316,11 @@
         <v>129</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>292</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>41</v>
       </c>
@@ -5341,7 +5337,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5356,13 +5352,13 @@
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>41</v>
@@ -5373,7 +5369,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5396,13 +5392,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5453,7 +5449,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5468,7 +5464,7 @@
         <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>41</v>
@@ -5485,7 +5481,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5511,83 +5507,83 @@
         <v>177</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P37" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="Q37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="Q37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>93</v>
@@ -5601,7 +5597,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5627,10 +5623,10 @@
         <v>125</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5660,11 +5656,11 @@
         <v>129</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>309</v>
-      </c>
       <c r="Z38" t="s" s="2">
         <v>41</v>
       </c>
@@ -5681,7 +5677,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5713,7 +5709,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5736,13 +5732,13 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5793,7 +5789,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5805,7 +5801,7 @@
         <v>41</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>41</v>
@@ -5825,7 +5821,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5848,13 +5844,13 @@
         <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>210</v>
+        <v>53</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5905,28 +5901,28 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>41</v>
@@ -5937,7 +5933,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5966,7 +5962,7 @@
         <v>97</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>99</v>
@@ -6019,7 +6015,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6040,7 +6036,7 @@
         <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>41</v>
@@ -6051,11 +6047,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6077,10 +6073,10 @@
         <v>96</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>99</v>
@@ -6135,7 +6131,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6167,7 +6163,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6190,13 +6186,13 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>210</v>
+        <v>53</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6247,7 +6243,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6265,7 +6261,7 @@
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>93</v>
@@ -6279,7 +6275,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6305,10 +6301,10 @@
         <v>64</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6359,7 +6355,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6391,7 +6387,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6417,10 +6413,10 @@
         <v>171</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6471,7 +6467,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6489,7 +6485,7 @@
         <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>93</v>
@@ -6503,7 +6499,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6529,10 +6525,10 @@
         <v>171</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6583,7 +6579,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6601,7 +6597,7 @@
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>93</v>
@@ -6615,7 +6611,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6641,10 +6637,10 @@
         <v>125</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6674,11 +6670,11 @@
         <v>129</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>336</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>41</v>
       </c>
@@ -6695,7 +6691,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6713,7 +6709,7 @@
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>93</v>
@@ -6727,7 +6723,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6753,10 +6749,10 @@
         <v>125</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6786,11 +6782,11 @@
         <v>129</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="Z48" t="s" s="2">
         <v>41</v>
       </c>
@@ -6807,7 +6803,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -6839,7 +6835,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6862,16 +6858,16 @@
         <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6921,7 +6917,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -6933,16 +6929,16 @@
         <v>41</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>41</v>
@@ -6953,7 +6949,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6976,13 +6972,13 @@
         <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>210</v>
+        <v>53</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7033,28 +7029,28 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>41</v>
@@ -7065,7 +7061,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7094,7 +7090,7 @@
         <v>97</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>99</v>
@@ -7147,7 +7143,7 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7168,7 +7164,7 @@
         <v>41</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>41</v>
@@ -7179,11 +7175,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7205,10 +7201,10 @@
         <v>96</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>99</v>
@@ -7263,7 +7259,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7295,7 +7291,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7321,10 +7317,10 @@
         <v>171</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7375,7 +7371,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7393,7 +7389,7 @@
         <v>41</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>167</v>
@@ -7407,7 +7403,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7430,13 +7426,13 @@
         <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7487,7 +7483,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7505,10 +7501,10 @@
         <v>41</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>41</v>
@@ -7519,7 +7515,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7545,10 +7541,10 @@
         <v>177</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7599,7 +7595,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7617,10 +7613,10 @@
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>41</v>
@@ -7631,7 +7627,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7654,13 +7650,13 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7711,7 +7707,7 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -7723,7 +7719,7 @@
         <v>41</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>41</v>
@@ -7743,7 +7739,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7766,13 +7762,13 @@
         <v>41</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>210</v>
+        <v>53</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7823,28 +7819,28 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>41</v>
@@ -7855,7 +7851,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7884,7 +7880,7 @@
         <v>97</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>99</v>
@@ -7937,7 +7933,7 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -7958,7 +7954,7 @@
         <v>41</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>41</v>
@@ -7969,11 +7965,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7995,10 +7991,10 @@
         <v>96</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>99</v>
@@ -8053,7 +8049,7 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8085,7 +8081,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8108,13 +8104,13 @@
         <v>41</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>210</v>
+        <v>53</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8165,7 +8161,7 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8197,7 +8193,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8223,10 +8219,10 @@
         <v>203</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8277,7 +8273,7 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8309,7 +8305,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8335,10 +8331,10 @@
         <v>125</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8368,11 +8364,11 @@
         <v>129</v>
       </c>
       <c r="X62" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="Y62" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="Y62" t="s" s="2">
-        <v>383</v>
-      </c>
       <c r="Z62" t="s" s="2">
         <v>41</v>
       </c>
@@ -8389,7 +8385,7 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8421,7 +8417,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8444,16 +8440,16 @@
         <v>41</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8503,7 +8499,7 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>51</v>
@@ -8535,7 +8531,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8558,16 +8554,16 @@
         <v>41</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L64" t="s" s="2">
-        <v>391</v>
-      </c>
       <c r="M64" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8617,7 +8613,7 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
